--- a/qualys_scan/managementIPOutput.xlsx
+++ b/qualys_scan/managementIPOutput.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>scan</t>
+          <t>scans</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Management_IP</t>
         </is>
       </c>
     </row>
@@ -447,6 +462,13 @@
           <t>Outdated (elkops-m003.st.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>elkops-m003.st.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,6 +476,13 @@
           <t>Outdated (fs018.prod.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fs018.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -461,6 +490,13 @@
           <t>Outdated (fs017.prod.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fs017.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -468,6 +504,13 @@
           <t>Outdated (elkmon-i004.adm.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>elkmon-i004.adm.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -475,6 +518,13 @@
           <t>Outdated (nacl1-m-05501.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nacl1-m-05501.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -482,6 +532,13 @@
           <t>Outdated (elkops-m001.st.svale.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>elkops-m001.st.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -489,6 +546,13 @@
           <t>Outdated (nacl-m004.adm.ams.netledger.com) NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nacl-m004.adm.ams.netledger.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +560,13 @@
           <t>db273.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>db273.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -503,6 +574,13 @@
           <t>db454.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>db454.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -510,6 +588,13 @@
           <t>gfs218.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>gfs218.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -517,6 +602,13 @@
           <t>ntp001.adm.sea.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ntp001.adm.sea.netledger.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -524,6 +616,13 @@
           <t>db161.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>db161.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -531,6 +630,13 @@
           <t>fs014.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fs014.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -538,6 +644,13 @@
           <t>fs013.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>fs013.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -545,6 +658,13 @@
           <t>gfs216.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gfs216.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -552,6 +672,13 @@
           <t>gfs213.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gfs213.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -559,6 +686,13 @@
           <t>db166.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>db166.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -566,6 +700,13 @@
           <t>db142.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>db142.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -573,6 +714,13 @@
           <t>db146.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>db146.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -580,6 +728,13 @@
           <t>db033.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>db033.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -587,6 +742,13 @@
           <t>db158.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>db158.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -594,6 +756,13 @@
           <t>db162.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>db162.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -601,6 +770,13 @@
           <t>gfs214.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gfs214.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -608,6 +784,13 @@
           <t>db154.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>db154.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -615,6 +798,13 @@
           <t>apache-partners004.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>apache-partners004.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -622,6 +812,13 @@
           <t>db165.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>db165.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -629,6 +826,13 @@
           <t>db129.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>db129.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -636,6 +840,13 @@
           <t>hyp006.adm.dub.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hyp006.adm.dub.netledger.com</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -643,6 +854,13 @@
           <t>db157.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>db157.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -650,6 +868,13 @@
           <t>db159.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>db159.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -657,6 +882,13 @@
           <t>db128.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>db128.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -664,6 +896,13 @@
           <t>db134.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>db134.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -671,6 +910,13 @@
           <t>db133.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>db133.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -678,6 +924,13 @@
           <t>db125.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>db125.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -685,6 +938,13 @@
           <t>db127.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>db127.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -692,6 +952,13 @@
           <t>db156.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>db156.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -699,6 +966,13 @@
           <t>db163.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>db163.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -706,6 +980,13 @@
           <t>db160.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>db160.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -713,6 +994,13 @@
           <t>db026.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>db026.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -720,6 +1008,13 @@
           <t>seogen001.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>seogen001.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -727,6 +1022,13 @@
           <t>backend019.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>backend019.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -734,6 +1036,13 @@
           <t>db111.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>db111.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -741,6 +1050,13 @@
           <t>db153.prod.svale.netledger.com NOK dns failure !!!</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>db153.prod.svale.netledger.com</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
